--- a/Projetos/Senai_Medical_Group/Modelagens/Medical_Groud_Físico.xlsx
+++ b/Projetos/Senai_Medical_Group/Modelagens/Medical_Groud_Físico.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47CB16BC-EAEB-4BBA-A3CB-8BE955C33447}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcos Roberto\Documents\2° Termo SENAI\Senai_strint1_bd\Projetos\Senai_Medical_Group\Modelagens\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686B16D9-8865-4327-A29D-632BBC09DBE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -256,18 +261,12 @@
     <t>Pediatra</t>
   </si>
   <si>
-    <t>Gustavo Luis</t>
-  </si>
-  <si>
     <t>97652- SP</t>
   </si>
   <si>
     <t>Psiquiatra </t>
   </si>
   <si>
-    <t>Lucas Silva</t>
-  </si>
-  <si>
     <t>88456 - SP</t>
   </si>
   <si>
@@ -334,9 +333,6 @@
     <t>(11) 9564-4535</t>
   </si>
   <si>
-    <t>Brenda Brenda</t>
-  </si>
-  <si>
     <t>89402076-0</t>
   </si>
   <si>
@@ -395,13 +391,22 @@
   </si>
   <si>
     <t>Cancelada</t>
+  </si>
+  <si>
+    <t>Brenda Santos</t>
+  </si>
+  <si>
+    <t>Pedro Silva</t>
+  </si>
+  <si>
+    <t>Ester Silva</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1205,45 +1210,6 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1265,6 +1231,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="18" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1274,45 +1333,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1322,64 +1342,49 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="18" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1401,7 +1406,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1699,38 +1704,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="D1" s="43" t="s">
+      <c r="B1" s="86"/>
+      <c r="D1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="45"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="91"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1756,64 +1761,64 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="52">
+      <c r="D3" s="39">
         <v>1</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="43" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="57"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="F4" s="44"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="58"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="41" t="s">
+      <c r="F5" s="45"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="D7" s="46" t="s">
+      <c r="B7" s="88"/>
+      <c r="D7" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="48"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="94"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,7 +1841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -1859,7 +1864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -1882,7 +1887,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -1905,7 +1910,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>4</v>
       </c>
@@ -1928,7 +1933,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>5</v>
       </c>
@@ -1951,7 +1956,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>6</v>
       </c>
@@ -1974,7 +1979,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>7</v>
       </c>
@@ -1997,7 +2002,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>8</v>
       </c>
@@ -2020,7 +2025,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>9</v>
       </c>
@@ -2028,7 +2033,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" s="18">
         <v>2</v>
@@ -2043,7 +2048,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>10</v>
       </c>
@@ -2051,7 +2056,7 @@
         <v>59</v>
       </c>
       <c r="D18" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" s="20">
         <v>2</v>
@@ -2066,7 +2071,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>11</v>
       </c>
@@ -2074,23 +2079,23 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="97"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>13</v>
       </c>
@@ -2116,7 +2121,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>14</v>
       </c>
@@ -2142,7 +2147,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>15</v>
       </c>
@@ -2168,7 +2173,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>16</v>
       </c>
@@ -2179,7 +2184,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="33">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F24" s="33">
         <v>16</v>
@@ -2188,18 +2193,18 @@
         <v>1</v>
       </c>
       <c r="H24" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="I24" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="I24" s="37" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>17</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="34">
         <v>4</v>
@@ -2214,360 +2219,360 @@
         <v>1</v>
       </c>
       <c r="H25" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="I25" s="38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="79"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="I25" s="38" t="s">
+      <c r="B28" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="47" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="61"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="62" t="s">
+      <c r="D28" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="63" t="s">
+      <c r="E28" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="63" t="s">
+      <c r="F28" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="63" t="s">
+      <c r="H28" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="63" t="s">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="49">
+        <v>1</v>
+      </c>
+      <c r="B29" s="50">
+        <v>4</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="51">
+        <v>36576</v>
+      </c>
+      <c r="H29" s="52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="49">
+        <v>2</v>
+      </c>
+      <c r="B30" s="50">
+        <v>6</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="51">
+        <v>35556</v>
+      </c>
+      <c r="H30" s="52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="49">
+        <v>3</v>
+      </c>
+      <c r="B31" s="50">
+        <v>7</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" s="51">
+        <v>36141</v>
+      </c>
+      <c r="H31" s="52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="53">
+        <v>4</v>
+      </c>
+      <c r="B32" s="54">
+        <v>9</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" s="55">
+        <v>37219</v>
+      </c>
+      <c r="H32" s="56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="82"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="62">
+        <v>1</v>
+      </c>
+      <c r="B36" s="63">
+        <v>1</v>
+      </c>
+      <c r="C36" s="63">
+        <v>1</v>
+      </c>
+      <c r="D36" s="63">
+        <v>1</v>
+      </c>
+      <c r="E36" s="64">
+        <v>43751</v>
+      </c>
+      <c r="F36" s="65" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="62">
+        <v>2</v>
+      </c>
+      <c r="B37" s="63">
+        <v>2</v>
+      </c>
+      <c r="C37" s="63">
+        <v>1</v>
+      </c>
+      <c r="D37" s="63">
+        <v>1</v>
+      </c>
+      <c r="E37" s="64">
+        <v>43819</v>
+      </c>
+      <c r="F37" s="65" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="62">
+        <v>3</v>
+      </c>
+      <c r="B38" s="63">
+        <v>3</v>
+      </c>
+      <c r="C38" s="63">
+        <v>3</v>
+      </c>
+      <c r="D38" s="63">
+        <v>1</v>
+      </c>
+      <c r="E38" s="64">
+        <v>43827</v>
+      </c>
+      <c r="F38" s="65" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="62">
+        <v>4</v>
+      </c>
+      <c r="B39" s="63">
+        <v>4</v>
+      </c>
+      <c r="C39" s="63">
+        <v>3</v>
+      </c>
+      <c r="D39" s="63">
+        <v>3</v>
+      </c>
+      <c r="E39" s="64">
+        <v>43954</v>
+      </c>
+      <c r="F39" s="65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="62">
         <v>5</v>
       </c>
-      <c r="G28" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="H28" s="64" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="65">
+      <c r="B40" s="63">
+        <v>2</v>
+      </c>
+      <c r="C40" s="63">
+        <v>3</v>
+      </c>
+      <c r="D40" s="63">
+        <v>3</v>
+      </c>
+      <c r="E40" s="64">
+        <v>43958</v>
+      </c>
+      <c r="F40" s="65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="62">
+        <v>6</v>
+      </c>
+      <c r="B41" s="63">
+        <v>4</v>
+      </c>
+      <c r="C41" s="63">
+        <v>4</v>
+      </c>
+      <c r="D41" s="63">
+        <v>2</v>
+      </c>
+      <c r="E41" s="70">
+        <v>44332</v>
+      </c>
+      <c r="F41" s="65" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="66">
+        <v>7</v>
+      </c>
+      <c r="B42" s="67">
         <v>1</v>
       </c>
-      <c r="B29" s="66">
+      <c r="C42" s="67">
         <v>4</v>
       </c>
-      <c r="C29" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="G29" s="67">
-        <v>36576</v>
-      </c>
-      <c r="H29" s="68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="65">
+      <c r="D42" s="67">
         <v>2</v>
       </c>
-      <c r="B30" s="66">
-        <v>5</v>
-      </c>
-      <c r="C30" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="F30" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="67">
-        <v>35556</v>
-      </c>
-      <c r="H30" s="68" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="65">
+      <c r="E42" s="68">
+        <v>44519</v>
+      </c>
+      <c r="F42" s="69" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="84"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="72" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="73">
+        <v>1</v>
+      </c>
+      <c r="B46" s="74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="73">
+        <v>2</v>
+      </c>
+      <c r="B47" s="74" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="75">
         <v>3</v>
       </c>
-      <c r="B31" s="66">
-        <v>6</v>
-      </c>
-      <c r="C31" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" s="66" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="G31" s="67">
-        <v>36141</v>
-      </c>
-      <c r="H31" s="68" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="69">
-        <v>4</v>
-      </c>
-      <c r="B32" s="70">
-        <v>7</v>
-      </c>
-      <c r="C32" s="74" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="F32" s="74" t="s">
-        <v>105</v>
-      </c>
-      <c r="G32" s="71">
-        <v>37219</v>
-      </c>
-      <c r="H32" s="72" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="75" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="77"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="79" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="E35" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="F35" s="80" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="81">
-        <v>1</v>
-      </c>
-      <c r="B36" s="82">
-        <v>1</v>
-      </c>
-      <c r="C36" s="82">
-        <v>1</v>
-      </c>
-      <c r="D36" s="82">
-        <v>1</v>
-      </c>
-      <c r="E36" s="83">
-        <v>43751</v>
-      </c>
-      <c r="F36" s="84" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="81">
-        <v>2</v>
-      </c>
-      <c r="B37" s="82">
-        <v>2</v>
-      </c>
-      <c r="C37" s="82">
-        <v>1</v>
-      </c>
-      <c r="D37" s="82">
-        <v>1</v>
-      </c>
-      <c r="E37" s="83">
-        <v>43819</v>
-      </c>
-      <c r="F37" s="84" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="81">
-        <v>3</v>
-      </c>
-      <c r="B38" s="82">
-        <v>3</v>
-      </c>
-      <c r="C38" s="82">
-        <v>3</v>
-      </c>
-      <c r="D38" s="82">
-        <v>1</v>
-      </c>
-      <c r="E38" s="83">
-        <v>43827</v>
-      </c>
-      <c r="F38" s="84" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="81">
-        <v>4</v>
-      </c>
-      <c r="B39" s="82">
-        <v>4</v>
-      </c>
-      <c r="C39" s="82">
-        <v>3</v>
-      </c>
-      <c r="D39" s="82">
-        <v>3</v>
-      </c>
-      <c r="E39" s="83">
-        <v>43954</v>
-      </c>
-      <c r="F39" s="84" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="81">
-        <v>5</v>
-      </c>
-      <c r="B40" s="82">
-        <v>2</v>
-      </c>
-      <c r="C40" s="82">
-        <v>3</v>
-      </c>
-      <c r="D40" s="82">
-        <v>3</v>
-      </c>
-      <c r="E40" s="83">
-        <v>43958</v>
-      </c>
-      <c r="F40" s="84" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="81">
-        <v>6</v>
-      </c>
-      <c r="B41" s="82">
-        <v>4</v>
-      </c>
-      <c r="C41" s="82">
-        <v>4</v>
-      </c>
-      <c r="D41" s="82">
-        <v>2</v>
-      </c>
-      <c r="E41" s="89">
-        <v>44332</v>
-      </c>
-      <c r="F41" s="84" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="85">
-        <v>7</v>
-      </c>
-      <c r="B42" s="86">
-        <v>1</v>
-      </c>
-      <c r="C42" s="86">
-        <v>4</v>
-      </c>
-      <c r="D42" s="86">
-        <v>2</v>
-      </c>
-      <c r="E42" s="87">
-        <v>44519</v>
-      </c>
-      <c r="F42" s="88" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="90" t="s">
+      <c r="B48" s="76" t="s">
         <v>119</v>
-      </c>
-      <c r="B44" s="91"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="92" t="s">
-        <v>109</v>
-      </c>
-      <c r="B45" s="93" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="94">
-        <v>1</v>
-      </c>
-      <c r="B46" s="95" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="94">
-        <v>2</v>
-      </c>
-      <c r="B47" s="95" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="96">
-        <v>3</v>
-      </c>
-      <c r="B48" s="97" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
